--- a/Strain Measurement/Strain_Measurement_Data.xlsx
+++ b/Strain Measurement/Strain_Measurement_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex's MATLAB Files\MECH&amp;AE 157W\157W-Group-6\Strain Measurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D6B08D-8CA0-425B-B479-CBC8A193A317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347408F4-ED87-4F5F-9028-B41F7AE16F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{BC9AE41A-54AE-46E3-BE6F-87557EEBFC01}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>-107.38</v>
+        <v>-107.08</v>
       </c>
       <c r="D52">
-        <v>22.58</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>-107.46</v>
+        <v>-107.11</v>
       </c>
       <c r="D53">
-        <v>22.68</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -968,10 +968,10 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>-107.58</v>
+        <v>-107.12</v>
       </c>
       <c r="D54">
-        <v>22.65</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>-107.47</v>
+        <v>-107.15</v>
       </c>
       <c r="D55">
-        <v>22.63</v>
+        <v>24.09</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -996,10 +996,10 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>-107.57</v>
+        <v>-107.23</v>
       </c>
       <c r="D56">
-        <v>22.65</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1010,10 +1010,10 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>-161.41999999999999</v>
+        <v>-161.44</v>
       </c>
       <c r="D57">
-        <v>21.8</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1024,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>-161.35</v>
+        <v>-161.53</v>
       </c>
       <c r="D58">
-        <v>21.71</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>-161.53</v>
+        <v>-161.30000000000001</v>
       </c>
       <c r="D59">
-        <v>21.66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1052,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>-161.47</v>
+        <v>-161.41999999999999</v>
       </c>
       <c r="D60">
-        <v>21.83</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1066,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>-161.46</v>
+        <v>-161.47999999999999</v>
       </c>
       <c r="D61">
-        <v>21.88</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1080,10 +1080,10 @@
         <v>4</v>
       </c>
       <c r="C62">
-        <v>-215.91</v>
+        <v>-213.49</v>
       </c>
       <c r="D62">
-        <v>20.92</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1094,10 +1094,10 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>-215.59</v>
+        <v>-213.61</v>
       </c>
       <c r="D63">
-        <v>20.67</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1108,10 +1108,10 @@
         <v>4</v>
       </c>
       <c r="C64">
-        <v>-215.92</v>
+        <v>-213.73</v>
       </c>
       <c r="D64">
-        <v>20.86</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1122,10 +1122,10 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>-215.62</v>
+        <v>-213.76</v>
       </c>
       <c r="D65">
-        <v>20.98</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1136,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>-215.91</v>
+        <v>-213.72</v>
       </c>
       <c r="D66">
-        <v>20.78</v>
+        <v>21.89</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,6 +1149,12 @@
       <c r="B67">
         <v>1</v>
       </c>
+      <c r="C67">
+        <v>-52.45</v>
+      </c>
+      <c r="D67">
+        <v>50.9</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -1157,6 +1163,12 @@
       <c r="B68">
         <v>1</v>
       </c>
+      <c r="C68">
+        <v>-52.47</v>
+      </c>
+      <c r="D68">
+        <v>50.72</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -1165,6 +1177,12 @@
       <c r="B69">
         <v>1</v>
       </c>
+      <c r="C69">
+        <v>-52.43</v>
+      </c>
+      <c r="D69">
+        <v>50.68</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
@@ -1173,6 +1191,12 @@
       <c r="B70">
         <v>1</v>
       </c>
+      <c r="C70">
+        <v>-52.38</v>
+      </c>
+      <c r="D70">
+        <v>51.01</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
@@ -1181,6 +1205,12 @@
       <c r="B71">
         <v>1</v>
       </c>
+      <c r="C71">
+        <v>-52.55</v>
+      </c>
+      <c r="D71">
+        <v>50.92</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -1189,6 +1219,12 @@
       <c r="B72">
         <v>1</v>
       </c>
+      <c r="C72">
+        <v>-51.38</v>
+      </c>
+      <c r="D72">
+        <v>76.37</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -1197,6 +1233,12 @@
       <c r="B73">
         <v>1</v>
       </c>
+      <c r="C73">
+        <v>-51.37</v>
+      </c>
+      <c r="D73">
+        <v>76.459999999999994</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -1205,6 +1247,12 @@
       <c r="B74">
         <v>1</v>
       </c>
+      <c r="C74">
+        <v>-51.51</v>
+      </c>
+      <c r="D74">
+        <v>76.55</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -1213,6 +1261,12 @@
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="C75">
+        <v>-51.35</v>
+      </c>
+      <c r="D75">
+        <v>76.73</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -1221,6 +1275,12 @@
       <c r="B76">
         <v>1</v>
       </c>
+      <c r="C76">
+        <v>-51.34</v>
+      </c>
+      <c r="D76">
+        <v>76.22</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -1229,6 +1289,12 @@
       <c r="B77">
         <v>1</v>
       </c>
+      <c r="C77">
+        <v>-50.48</v>
+      </c>
+      <c r="D77">
+        <v>102.56</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -1237,6 +1303,12 @@
       <c r="B78">
         <v>1</v>
       </c>
+      <c r="C78">
+        <v>-50.58</v>
+      </c>
+      <c r="D78">
+        <v>102.25</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -1245,6 +1317,12 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="C79">
+        <v>-50.64</v>
+      </c>
+      <c r="D79">
+        <v>102.4</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -1253,38 +1331,125 @@
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>-50.74</v>
+      </c>
+      <c r="D80">
+        <v>102.41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>-50.74</v>
+      </c>
+      <c r="D81">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>206.88</v>
+      </c>
+      <c r="E82">
+        <v>144.21</v>
+      </c>
+      <c r="F82">
+        <v>-161.75</v>
+      </c>
+      <c r="G82">
+        <v>-88.65</v>
+      </c>
+      <c r="H82">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>206.12</v>
+      </c>
+      <c r="E83">
+        <v>144.29</v>
+      </c>
+      <c r="F83">
+        <v>-169.92</v>
+      </c>
+      <c r="G83">
+        <v>-88.53</v>
+      </c>
+      <c r="H83">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>206.43</v>
+      </c>
+      <c r="E84">
+        <v>144.13999999999999</v>
+      </c>
+      <c r="F84">
+        <v>-161.94999999999999</v>
+      </c>
+      <c r="G84">
+        <v>-88.53</v>
+      </c>
+      <c r="H84">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>205.92</v>
+      </c>
+      <c r="E85">
+        <v>144.04</v>
+      </c>
+      <c r="F85">
+        <v>-161.85</v>
+      </c>
+      <c r="G85">
+        <v>-88.41</v>
+      </c>
+      <c r="H85">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8</v>
+      </c>
+      <c r="D86">
+        <v>206.54</v>
+      </c>
+      <c r="E86">
+        <v>144.02000000000001</v>
+      </c>
+      <c r="F86">
+        <v>-161.81</v>
+      </c>
+      <c r="G86">
+        <v>-88.3</v>
+      </c>
+      <c r="H86">
+        <v>8.33</v>
       </c>
     </row>
   </sheetData>

--- a/Strain Measurement/Strain_Measurement_Data.xlsx
+++ b/Strain Measurement/Strain_Measurement_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex's MATLAB Files\MECH&amp;AE 157W\157W-Group-6\Strain Measurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347408F4-ED87-4F5F-9028-B41F7AE16F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDFBAF-A2BC-4B6C-976E-EA7F0096716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{BC9AE41A-54AE-46E3-BE6F-87557EEBFC01}"/>
   </bookViews>
@@ -443,8 +443,8 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Strain Measurement/Strain_Measurement_Data.xlsx
+++ b/Strain Measurement/Strain_Measurement_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex's MATLAB Files\MECH&amp;AE 157W\157W-Group-6\Strain Measurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDFBAF-A2BC-4B6C-976E-EA7F0096716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C4629-5068-48D3-8AC6-BCB03A2CE553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{BC9AE41A-54AE-46E3-BE6F-87557EEBFC01}"/>
   </bookViews>
@@ -443,8 +443,8 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
